--- a/src/assets/files/schedule.xlsx
+++ b/src/assets/files/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Project\Erp_billgate_admin\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3163CBB-36F1-4BAD-8E8A-3FCF30AC6EC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2A3B91-CB8B-4F93-81CE-82DB71F3524D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="19">
   <si>
     <t>Thứ 3</t>
   </si>
@@ -497,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,6 +850,183 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="K1:M1"/>
